--- a/LubanTool/Config/Datas/__enums__.xlsx
+++ b/LubanTool/Config/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\github\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YANG\YangTool\LubanTool\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C2B990-FCD7-4376-9E19-8C4DC3400C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2450EB82-ECC5-42A9-BFB6-24818300092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="585" windowWidth="17640" windowHeight="11385" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="2340" yWindow="1920" windowWidth="25065" windowHeight="14280" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,10 +263,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +585,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -620,13 +620,13 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -660,7 +660,7 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="1" t="s">

--- a/LubanTool/Config/Datas/__enums__.xlsx
+++ b/LubanTool/Config/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YANG\YangTool\LubanTool\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2450EB82-ECC5-42A9-BFB6-24818300092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED54C0B-EADD-4985-9C62-1AA50BB300CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1920" windowWidth="25065" windowHeight="14280" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="285" yWindow="855" windowWidth="25770" windowHeight="14280" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,26 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>full_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,14 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>位标记使用示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,15 +147,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PURPLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WHITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色(五彩斑斓黑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色(五彩斑斓金)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,32 +608,32 @@
     <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -630,7 +642,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -638,33 +650,33 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -672,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -693,110 +705,124 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="b">
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="b">
+      <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8">
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9">
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
